--- a/tabular/eve/hamaparvovirinae/epv-ichthama-side-data.xlsx
+++ b/tabular/eve/hamaparvovirinae/epv-ichthama-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/hamaparvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/paleovirology/Parvovirus-GLUE-EVE/tabular/eve/hamaparvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D61ACF-F085-474E-8EA5-01CF2ECAC8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE200899-A11A-AE45-94E1-2176C4875497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="560" windowWidth="27920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ichthama" sheetId="1" r:id="rId1"/>
@@ -599,13 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,18 +772,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1141,15 +1141,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+    <sheetView tabSelected="1" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
@@ -1158,105 +1159,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
@@ -1265,7 +1266,7 @@
       <c r="F2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H2" t="s">
@@ -1277,7 +1278,7 @@
       <c r="J2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L2" t="s">
@@ -1333,539 +1334,539 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>72152472</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="2">
         <v>72153041</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="2">
         <v>190</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="2">
         <v>570</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="2">
         <v>190</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="2">
         <v>310</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="2">
         <v>83.683999999999997</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="2">
         <v>2.57</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="2">
         <v>103</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="2">
         <v>0</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="2">
         <v>0</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="2">
         <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <v>1937</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <v>2821</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <v>545</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="2">
         <v>837</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
         <v>7</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="2">
         <v>885</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="2">
         <v>293</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="2">
         <v>602</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="2">
         <v>96.927999999999997</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="2">
         <v>1</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="2">
         <v>0</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="2">
         <v>0</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="2">
         <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>1978</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <v>4482</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <v>1</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="2">
         <v>837</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
         <v>1</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="2">
         <v>2505</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="2">
         <v>838</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="2">
         <v>1218</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="2">
         <v>86.158000000000001</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="2">
         <v>0</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="2">
         <v>1</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="2">
         <v>2</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="2">
         <v>0</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="2">
         <v>2505</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>6</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>320102</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <v>320644</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2">
         <v>1</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="2">
         <v>178</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
         <v>1</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="2">
         <v>534</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="2">
         <v>178</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="2">
         <v>293</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="2">
         <v>84.831000000000003</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="2">
         <v>4.79</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="2">
         <v>97</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="2">
         <v>0</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="2">
         <v>0</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="2">
         <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>68225</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <v>68530</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>545</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="2">
         <v>643</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="2">
         <v>7</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="2">
         <v>306</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="2">
         <v>100</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="2">
         <v>165</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="2">
         <v>80</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="2">
         <v>8.8699999999999992</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="2">
         <v>51</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="2">
         <v>1</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="2">
         <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>15274</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <v>17836</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="2">
         <v>545</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
         <v>1</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="2">
         <v>1635</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="2">
         <v>545</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="2">
         <v>774</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="2">
         <v>91.927000000000007</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="2">
         <v>1</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="2">
         <v>0</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="2">
         <v>2563</v>
       </c>
-      <c r="AG8" s="6"/>
+      <c r="AG8" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC8">
